--- a/teaching/traditional_assets/database/data/france/france_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_reinsurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0728</v>
+        <v>0.0496</v>
       </c>
       <c r="E2">
-        <v>-0.094</v>
+        <v>-0.243</v>
       </c>
       <c r="F2">
-        <v>0.295</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
-        <v>0.04497232865048957</v>
+        <v>0.04271076341404553</v>
       </c>
       <c r="H2">
-        <v>0.04497232865048957</v>
+        <v>0.04271076341404553</v>
       </c>
       <c r="I2">
-        <v>0.03988268055671156</v>
+        <v>0.02096070308100716</v>
       </c>
       <c r="J2">
-        <v>0.02964127292589262</v>
+        <v>0.01559766017011187</v>
       </c>
       <c r="K2">
-        <v>415.4</v>
+        <v>183.2</v>
       </c>
       <c r="L2">
-        <v>0.02357882787001561</v>
+        <v>0.009210843858096694</v>
       </c>
       <c r="M2">
-        <v>585.6</v>
+        <v>50.5</v>
       </c>
       <c r="N2">
-        <v>0.07488108025164954</v>
+        <v>0.008408958454749812</v>
       </c>
       <c r="O2">
-        <v>1.409725565719788</v>
+        <v>0.2756550218340612</v>
       </c>
       <c r="P2">
-        <v>353.3</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04517671730346274</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8505055368319693</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>232.3</v>
+        <v>50.5</v>
       </c>
       <c r="T2">
-        <v>0.3966871584699453</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>2036.9</v>
+        <v>2541.1</v>
       </c>
       <c r="V2">
-        <v>0.2604598230269551</v>
+        <v>0.4231287986012822</v>
       </c>
       <c r="W2">
-        <v>0.05873702666779786</v>
+        <v>0.02598802734984538</v>
       </c>
       <c r="X2">
-        <v>0.08712294717273941</v>
+        <v>0.1049515084394596</v>
       </c>
       <c r="Y2">
-        <v>-0.02838592050494156</v>
+        <v>-0.07896348108961419</v>
       </c>
       <c r="Z2">
-        <v>2.082044581010252</v>
+        <v>2.743809405564982</v>
       </c>
       <c r="AA2">
-        <v>0.06171445166960061</v>
+        <v>0.04279700667955924</v>
       </c>
       <c r="AB2">
-        <v>0.06754444868747393</v>
+        <v>0.07014030709155014</v>
       </c>
       <c r="AC2">
-        <v>-0.005829997017873324</v>
+        <v>-0.0273433004119909</v>
       </c>
       <c r="AD2">
-        <v>3185</v>
+        <v>3911.5</v>
       </c>
       <c r="AE2">
-        <v>190.3343764606707</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3375.334376460671</v>
+        <v>3911.5</v>
       </c>
       <c r="AG2">
-        <v>1338.434376460671</v>
+        <v>1370.4</v>
       </c>
       <c r="AH2">
-        <v>0.3014839637100896</v>
+        <v>0.3944237168498538</v>
       </c>
       <c r="AI2">
-        <v>0.3229047427665245</v>
+        <v>0.3477043424152185</v>
       </c>
       <c r="AJ2">
-        <v>0.1461358860141211</v>
+        <v>0.1857942759527651</v>
       </c>
       <c r="AK2">
-        <v>0.1590319636773121</v>
+        <v>0.157365302466584</v>
       </c>
       <c r="AL2">
-        <v>116.7</v>
+        <v>132.7</v>
       </c>
       <c r="AM2">
-        <v>116.7</v>
+        <v>132.7</v>
       </c>
       <c r="AN2">
-        <v>3.806621250149397</v>
+        <v>8.064948453608247</v>
       </c>
       <c r="AO2">
-        <v>6.091688089117395</v>
+        <v>3.141672946495855</v>
       </c>
       <c r="AP2">
-        <v>1.599658630884033</v>
+        <v>2.825567010309279</v>
       </c>
       <c r="AQ2">
-        <v>6.091688089117395</v>
+        <v>3.141672946495855</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0728</v>
+        <v>0.0496</v>
       </c>
       <c r="E3">
-        <v>-0.094</v>
+        <v>-0.243</v>
       </c>
       <c r="F3">
-        <v>0.295</v>
+        <v>0.4</v>
       </c>
       <c r="G3">
-        <v>0.04497232865048957</v>
+        <v>0.04271076341404553</v>
       </c>
       <c r="H3">
-        <v>0.04497232865048957</v>
+        <v>0.04271076341404553</v>
       </c>
       <c r="I3">
-        <v>0.03988268055671156</v>
+        <v>0.02096070308100716</v>
       </c>
       <c r="J3">
-        <v>0.02964127292589262</v>
+        <v>0.01559766017011187</v>
       </c>
       <c r="K3">
-        <v>415.4</v>
+        <v>183.2</v>
       </c>
       <c r="L3">
-        <v>0.02357882787001561</v>
+        <v>0.009210843858096694</v>
       </c>
       <c r="M3">
-        <v>585.6</v>
+        <v>50.5</v>
       </c>
       <c r="N3">
-        <v>0.07488108025164954</v>
+        <v>0.008408958454749812</v>
       </c>
       <c r="O3">
-        <v>1.409725565719788</v>
+        <v>0.2756550218340612</v>
       </c>
       <c r="P3">
-        <v>353.3</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.04517671730346274</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.8505055368319693</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>232.3</v>
+        <v>50.5</v>
       </c>
       <c r="T3">
-        <v>0.3966871584699453</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>2036.9</v>
+        <v>2541.1</v>
       </c>
       <c r="V3">
-        <v>0.2604598230269551</v>
+        <v>0.4231287986012822</v>
       </c>
       <c r="W3">
-        <v>0.05873702666779786</v>
+        <v>0.02598802734984538</v>
       </c>
       <c r="X3">
-        <v>0.08712294717273941</v>
+        <v>0.1049515084394596</v>
       </c>
       <c r="Y3">
-        <v>-0.02838592050494156</v>
+        <v>-0.07896348108961419</v>
       </c>
       <c r="Z3">
-        <v>2.082044581010252</v>
+        <v>2.743809405564982</v>
       </c>
       <c r="AA3">
-        <v>0.06171445166960061</v>
+        <v>0.04279700667955924</v>
       </c>
       <c r="AB3">
-        <v>0.06754444868747393</v>
+        <v>0.07014030709155014</v>
       </c>
       <c r="AC3">
-        <v>-0.005829997017873324</v>
+        <v>-0.0273433004119909</v>
       </c>
       <c r="AD3">
-        <v>3185</v>
+        <v>3911.5</v>
       </c>
       <c r="AE3">
-        <v>190.3343764606707</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3375.334376460671</v>
+        <v>3911.5</v>
       </c>
       <c r="AG3">
-        <v>1338.434376460671</v>
+        <v>1370.4</v>
       </c>
       <c r="AH3">
-        <v>0.3014839637100896</v>
+        <v>0.3944237168498538</v>
       </c>
       <c r="AI3">
-        <v>0.3229047427665245</v>
+        <v>0.3477043424152185</v>
       </c>
       <c r="AJ3">
-        <v>0.1461358860141211</v>
+        <v>0.1857942759527651</v>
       </c>
       <c r="AK3">
-        <v>0.1590319636773121</v>
+        <v>0.157365302466584</v>
       </c>
       <c r="AL3">
-        <v>116.7</v>
+        <v>132.7</v>
       </c>
       <c r="AM3">
-        <v>116.7</v>
+        <v>132.7</v>
       </c>
       <c r="AN3">
-        <v>3.806621250149397</v>
+        <v>8.064948453608247</v>
       </c>
       <c r="AO3">
-        <v>6.091688089117395</v>
+        <v>3.141672946495855</v>
       </c>
       <c r="AP3">
-        <v>1.599658630884033</v>
+        <v>2.825567010309279</v>
       </c>
       <c r="AQ3">
-        <v>6.091688089117395</v>
+        <v>3.141672946495855</v>
       </c>
     </row>
   </sheetData>
